--- a/ExportXlsx/ExportXlsx/ExportXlsx/Example/Config/ExportSetting.xlsx
+++ b/ExportXlsx/ExportXlsx/ExportXlsx/Example/Config/ExportSetting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE28782E-4716-4747-8311-D8C6D846A076}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27F931EB-F866-4823-8113-D0014D41EA89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StructSheet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -134,6 +134,10 @@
   <si>
     <t>Floor</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x:y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -661,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351D720C-B590-4E59-BE47-223D5F1EC241}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
